--- a/data/trans_dic/P1408-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1408-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.02719008098247046</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05270255064886435</v>
+        <v>0.05270255064886437</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.03897260138600089</v>
@@ -697,7 +697,7 @@
         <v>0.02170872126269199</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05241584517924712</v>
+        <v>0.05241584517924713</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05341862767794078</v>
+        <v>0.05184243795012693</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01948223738903195</v>
+        <v>0.01878896356342079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01865984935764856</v>
+        <v>0.01812129562424529</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03500622207495747</v>
+        <v>0.0367689636827381</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02708639169099372</v>
+        <v>0.02825421780200054</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009735294410005821</v>
+        <v>0.009086007578171396</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01005442240548754</v>
+        <v>0.01082190567270587</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03886255441152089</v>
+        <v>0.03825406511083428</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04032076305580853</v>
+        <v>0.04113029710195691</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01613536877800483</v>
+        <v>0.01605809873859236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01617747945475035</v>
+        <v>0.01610330931924691</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04174556386925241</v>
+        <v>0.04136217272462733</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09500386954073184</v>
+        <v>0.09372242662143213</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04146608778881512</v>
+        <v>0.04068691030955968</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0386280799030499</v>
+        <v>0.03910867601564022</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07259644594552382</v>
+        <v>0.07398540911733362</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05377824146324896</v>
+        <v>0.05336181908965779</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0266226885797589</v>
+        <v>0.02527501633493534</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0249756455083315</v>
+        <v>0.02630629213829191</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07433395796722722</v>
+        <v>0.0759334925263688</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06307094473284382</v>
+        <v>0.06412404834765936</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02976992227462303</v>
+        <v>0.02939419306947745</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02832708350912484</v>
+        <v>0.02831332909702209</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.06742683496309775</v>
+        <v>0.06837232157879386</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02035408364339881</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.02699993477882147</v>
+        <v>0.02699993477882146</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02485630815539508</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03050776969443241</v>
+        <v>0.03063495558135692</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01142027751154534</v>
+        <v>0.01152761012038046</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01252487207146496</v>
+        <v>0.01225035330932395</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01886822457521557</v>
+        <v>0.01815551660239917</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01657803972548669</v>
+        <v>0.01677219297172089</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.004721392442883532</v>
+        <v>0.005058124849770803</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005058221905103371</v>
+        <v>0.004387966307777024</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01800872696245071</v>
+        <v>0.01769480152638792</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02538195367764542</v>
+        <v>0.02624720668375368</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.009630914181085975</v>
+        <v>0.01002481955232773</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.009768596103505237</v>
+        <v>0.01008839026002799</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02048782649380456</v>
+        <v>0.02057610651984597</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05504450517526471</v>
+        <v>0.05448538649335063</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02959419144458734</v>
+        <v>0.0299735903304831</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03097757381869424</v>
+        <v>0.03181139387234549</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04016135750589182</v>
+        <v>0.03922872402413377</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03539752136823437</v>
+        <v>0.03549196607222609</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01750310788865467</v>
+        <v>0.01720937630915592</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01870532774679166</v>
+        <v>0.01791701998431643</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03573174817394932</v>
+        <v>0.03604938999942867</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0414017488876272</v>
+        <v>0.0411123330230595</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02007596465732077</v>
+        <v>0.02056430120147115</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02113630980772436</v>
+        <v>0.02139460851976323</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03358219553046028</v>
+        <v>0.03323400312841426</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01348550287430286</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01884778748638246</v>
+        <v>0.01884778748638245</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.0167172405223534</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02378148781429672</v>
+        <v>0.02400527135076756</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01325833900901714</v>
+        <v>0.01356020168421407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006898049350684094</v>
+        <v>0.00699125142301925</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01220927336501978</v>
+        <v>0.01244750372652387</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.009932803275418785</v>
+        <v>0.01000952552219826</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.004859245893819745</v>
+        <v>0.005057746936742627</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009011420336633874</v>
+        <v>0.0084544949546718</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01048544558398614</v>
+        <v>0.01070658922762468</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01930233920993882</v>
+        <v>0.01936410832232666</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0109693835969606</v>
+        <v>0.01142052272546524</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009899306730191203</v>
+        <v>0.009248457543572593</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01264053499655181</v>
+        <v>0.01275171017571218</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04481858761890578</v>
+        <v>0.0452078694396653</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0387085452687588</v>
+        <v>0.03826366666916933</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02231339643175056</v>
+        <v>0.02375573965275869</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0268275668804156</v>
+        <v>0.02724530849714812</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02592474482967818</v>
+        <v>0.0267108908729525</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02057189668811109</v>
+        <v>0.02058697978585527</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02950636202096665</v>
+        <v>0.02772336740945658</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02274917433095801</v>
+        <v>0.0222726920845403</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03377701633284054</v>
+        <v>0.03338069749699835</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02572791997318257</v>
+        <v>0.0254676622208496</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02211426940006829</v>
+        <v>0.02186229722476073</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02264699452795466</v>
+        <v>0.02275379582827875</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.008850381177747392</v>
+        <v>0.00875509388098626</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003918935949669577</v>
+        <v>0.004044732922926379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005006805937254305</v>
+        <v>0.004053193756310567</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01131173335374452</v>
+        <v>0.0122337038424534</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.009924269156399948</v>
+        <v>0.0103274686414214</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002294943167467887</v>
+        <v>0.002302387343042418</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01356499545249176</v>
+        <v>0.01287331322890177</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01317171774517185</v>
+        <v>0.01280777948207845</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.004527859717142452</v>
+        <v>0.004442126044465236</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.003705103713020127</v>
+        <v>0.003686323952441797</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01407384609368972</v>
+        <v>0.01470251216165166</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03646899406869324</v>
+        <v>0.03646479867703261</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02299865888312878</v>
+        <v>0.02320681140080041</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02860933130722906</v>
+        <v>0.02642963756537914</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02679812267227073</v>
+        <v>0.02770238397703252</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04596719573192599</v>
+        <v>0.04619260622378024</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02270406555081794</v>
+        <v>0.022695294922049</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0157739110786281</v>
+        <v>0.01394875958438276</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0293906651494633</v>
+        <v>0.02827391297093119</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03464309467736428</v>
+        <v>0.03477142159774489</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.01758957289702862</v>
+        <v>0.01844742888103965</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01736252018939683</v>
+        <v>0.01591978759685466</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02462436437630717</v>
+        <v>0.02520050191409567</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.0197429771372896</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.02565477392721291</v>
+        <v>0.0256547739272129</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.02640470497794371</v>
@@ -1229,7 +1229,7 @@
         <v>0.01290671835658968</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.02575572156519113</v>
+        <v>0.02575572156519114</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03356642802513132</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03473446448329082</v>
+        <v>0.03442108142753356</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01652472504689195</v>
+        <v>0.01694589565360975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0150751792721931</v>
+        <v>0.01544741565596684</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02087641650213986</v>
+        <v>0.02133880807995559</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02168856433141493</v>
+        <v>0.02115556940231918</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.008683108007243208</v>
+        <v>0.008777986614362302</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.009768733919666359</v>
+        <v>0.009365269760543762</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02129630022889976</v>
+        <v>0.02156227152454956</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02942617599888213</v>
+        <v>0.02954363706059276</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01375395659559468</v>
+        <v>0.01343802903053767</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01345599871266778</v>
+        <v>0.01335488252368179</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02222736631401575</v>
+        <v>0.02245878293515671</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04845077688244622</v>
+        <v>0.04835576773004992</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02768207679303053</v>
+        <v>0.02809695271092844</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02455727009216892</v>
+        <v>0.02478254861094981</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03104648334151999</v>
+        <v>0.03117937807187556</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0323891931560365</v>
+        <v>0.03209309568279265</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01650036177692957</v>
+        <v>0.01630627545486726</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01774237732562328</v>
+        <v>0.01706481713850481</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.030903380885668</v>
+        <v>0.03091243516732562</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03839495626899922</v>
+        <v>0.03823726938131375</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.02013012662102663</v>
+        <v>0.01986290068470078</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01929977312196824</v>
+        <v>0.019509706709794</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.0290749242151616</v>
+        <v>0.02924538961183646</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31204</v>
+        <v>30283</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20338</v>
+        <v>19614</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21048</v>
+        <v>20441</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17390</v>
+        <v>18266</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>24983</v>
+        <v>26060</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10879</v>
+        <v>10153</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12664</v>
+        <v>13631</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>24206</v>
+        <v>23827</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>60742</v>
+        <v>61962</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>34875</v>
+        <v>34708</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>38625</v>
+        <v>38448</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>46740</v>
+        <v>46311</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>55496</v>
+        <v>54747</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>43288</v>
+        <v>42474</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>43572</v>
+        <v>44114</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36064</v>
+        <v>36754</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>49601</v>
+        <v>49217</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>29750</v>
+        <v>28244</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>31458</v>
+        <v>33134</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>46301</v>
+        <v>47297</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>95015</v>
+        <v>96601</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>64345</v>
+        <v>63533</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>67633</v>
+        <v>67600</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>75494</v>
+        <v>76553</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>32884</v>
+        <v>33021</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11158</v>
+        <v>11263</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>11383</v>
+        <v>11133</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>18116</v>
+        <v>17432</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>17532</v>
+        <v>17737</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5157</v>
+        <v>5525</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5091</v>
+        <v>4416</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>20050</v>
+        <v>19701</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>54201</v>
+        <v>56049</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>19930</v>
+        <v>20745</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>18710</v>
+        <v>19322</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>42481</v>
+        <v>42664</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>59332</v>
+        <v>58729</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28916</v>
+        <v>29286</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28153</v>
+        <v>28911</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>38560</v>
+        <v>37665</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37434</v>
+        <v>37534</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>19119</v>
+        <v>18798</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>18826</v>
+        <v>18033</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>39782</v>
+        <v>40136</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>88411</v>
+        <v>87793</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>41545</v>
+        <v>42556</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>40482</v>
+        <v>40977</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>69632</v>
+        <v>68910</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>26673</v>
+        <v>26924</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11735</v>
+        <v>12002</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5682</v>
+        <v>5759</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12777</v>
+        <v>13026</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9873</v>
+        <v>9949</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4256</v>
+        <v>4430</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6948</v>
+        <v>6519</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10965</v>
+        <v>11196</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>40835</v>
+        <v>40965</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>19316</v>
+        <v>20111</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>15788</v>
+        <v>14750</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>26446</v>
+        <v>26679</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>50268</v>
+        <v>50705</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>34262</v>
+        <v>33868</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18381</v>
+        <v>19569</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>28074</v>
+        <v>28512</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>25768</v>
+        <v>26549</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18017</v>
+        <v>18030</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22751</v>
+        <v>21376</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23789</v>
+        <v>23290</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>71456</v>
+        <v>70618</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>45305</v>
+        <v>44846</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>35268</v>
+        <v>34866</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>47381</v>
+        <v>47605</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3958</v>
+        <v>3915</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1971</v>
+        <v>2035</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2537</v>
+        <v>2054</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11039</v>
+        <v>11939</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3386</v>
+        <v>3523</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>12315</v>
+        <v>11687</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10384</v>
+        <v>10097</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4328</v>
+        <v>4246</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3692</v>
+        <v>3673</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>26512</v>
+        <v>27696</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16309</v>
+        <v>16307</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11569</v>
+        <v>11674</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>14496</v>
+        <v>13392</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>26153</v>
+        <v>27036</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15682</v>
+        <v>15759</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>10279</v>
+        <v>10275</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7724</v>
+        <v>6831</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26682</v>
+        <v>25668</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>27311</v>
+        <v>27412</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>16811</v>
+        <v>17631</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>17300</v>
+        <v>15862</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>46387</v>
+        <v>47472</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>112221</v>
+        <v>111209</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>56335</v>
+        <v>57771</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>50762</v>
+        <v>52016</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>72636</v>
+        <v>74244</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>71897</v>
+        <v>70130</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>30724</v>
+        <v>31059</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>34452</v>
+        <v>33029</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>78578</v>
+        <v>79560</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>192618</v>
+        <v>193387</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>95555</v>
+        <v>93360</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>92767</v>
+        <v>92070</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>159350</v>
+        <v>161009</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>156536</v>
+        <v>156229</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>94372</v>
+        <v>95787</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>82691</v>
+        <v>83450</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>108021</v>
+        <v>108483</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>107369</v>
+        <v>106388</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>58384</v>
+        <v>57697</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>62574</v>
+        <v>60184</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>114026</v>
+        <v>114060</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>251326</v>
+        <v>250293</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>139854</v>
+        <v>137997</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>133054</v>
+        <v>134501</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>208441</v>
+        <v>209663</v>
       </c>
     </row>
     <row r="24">
